--- a/biology/Zoologie/Guêpier_de_Révoil/Guêpier_de_Révoil.xlsx
+++ b/biology/Zoologie/Guêpier_de_Révoil/Guêpier_de_Révoil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_R%C3%A9voil</t>
+          <t>Guêpier_de_Révoil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Merops revoilii
 Le Guêpier de Révoil (Merops revoilii), anciennement Guêpier de Revoil, est une espèce d'oiseaux appartenant à l'ordre des passereaux de la famille des Meropidae.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_R%C3%A9voil</t>
+          <t>Guêpier_de_Révoil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le guêpier somalien atteint une longueur de 16 à 18 cm. Les sexes sont similaires en apparence et sont des oiseaux minces avec un plumage épineux sur la tête. La couronne est vert brillant et le sourcil bleu. Les parties supérieures du corps sont de différentes nuances de vert, le bas du dos et la croupe sont bleu vif et la queue est vert bleuâtre. Les joues, le menton et la gorge sont blancs, et la poitrine et le ventre chamois à la cannelle. Le bec est noir, les yeux brun rougeâtre et les pattes gris foncé. Cette espèce n’a pas les bords de fuite sombres des ailes à la différence d’autres membres du genre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le guêpier somalien atteint une longueur de 16 à 18 cm. Les sexes sont similaires en apparence et sont des oiseaux minces avec un plumage épineux sur la tête. La couronne est vert brillant et le sourcil bleu. Les parties supérieures du corps sont de différentes nuances de vert, le bas du dos et la croupe sont bleu vif et la queue est vert bleuâtre. Les joues, le menton et la gorge sont blancs, et la poitrine et le ventre chamois à la cannelle. Le bec est noir, les yeux brun rougeâtre et les pattes gris foncé. Cette espèce n’a pas les bords de fuite sombres des ailes à la différence d’autres membres du genre.
 </t>
         </is>
       </c>
